--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>－</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユースケース構成</t>
     <rPh sb="6" eb="8">
       <t>コウセイ</t>
@@ -311,10 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hotel.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>801_01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,15 +315,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hotel.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HotelSearch.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HotelDetailAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelSearchAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>HotelDetail.jsp</t>
+  </si>
+  <si>
+    <t>HotelDetail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartAddAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotelSearch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelLogic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,6 +762,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,57 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2057,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2080,23 +2103,23 @@
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="42"/>
+      <c r="G2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="59"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2105,19 +2128,19 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2129,92 +2152,98 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="F6" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
-        <v>43</v>
+      <c r="A8" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="54"/>
+      <c r="D8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2223,20 +2252,20 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55"/>
+        <v>38</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2245,22 +2274,26 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="56"/>
+      <c r="E10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="53" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -2269,15 +2302,15 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="57"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>10</v>
@@ -2291,35 +2324,23 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="15"/>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="16"/>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="14"/>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2329,6 +2350,18 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,14 +2374,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -2376,23 +2410,23 @@
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="36" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="36" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="42"/>
+      <c r="G2" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="59"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2404,19 +2438,19 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2444,96 +2478,98 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="F6" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="61" t="s">
-        <v>42</v>
+      <c r="A8" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>32</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2542,20 +2578,20 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2565,6 +2601,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2574,14 +2618,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7905"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -323,38 +323,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HotelDetail.jsp</t>
+  </si>
+  <si>
+    <t>HotelDetail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addItem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotelSearch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartAddAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>HotelSearchAction</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HotelDetail.jsp</t>
-  </si>
-  <si>
-    <t>HotelDetail.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>getDetail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartAddAction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShoppingCartLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>addItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hotelSearch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HotelLogic</t>
+    <t>HotelSearchLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelDetailLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShoppingCartAddLogic</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,21 +802,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,6 +837,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2080,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2106,20 +2107,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2137,10 +2138,10 @@
       <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2152,29 +2153,29 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
@@ -2186,21 +2187,21 @@
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2231,13 +2232,13 @@
         <v>35</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>25</v>
@@ -2259,7 +2260,7 @@
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="52"/>
-      <c r="F9" s="56"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>26</v>
@@ -2285,15 +2286,17 @@
       <c r="E10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="53" t="s">
-        <v>47</v>
+      <c r="F10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -2306,9 +2309,9 @@
       <c r="B11" s="31"/>
       <c r="C11" s="43"/>
       <c r="D11" s="46"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2343,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2356,7 +2359,8 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -2365,31 +2369,35 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="7" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -2413,20 +2421,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2447,10 +2455,10 @@
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2478,29 +2486,29 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
@@ -2512,21 +2520,21 @@
       <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2557,13 +2565,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>25</v>
@@ -2580,18 +2588,18 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2621,7 +2629,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="2295"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
     <sheet name="ホテル商品詳細" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H4"/>
 </workbook>
 </file>
 
@@ -766,6 +767,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -786,63 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2081,7 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2107,20 +2108,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2138,10 +2139,10 @@
       <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2153,55 +2154,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="57" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2219,25 +2220,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="54" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="34" t="s">
@@ -2253,15 +2254,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2275,21 +2276,21 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="57" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2305,13 +2306,13 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2344,6 +2345,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2353,19 +2367,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,7 +2382,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2421,20 +2422,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2455,10 +2456,10 @@
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2486,55 +2487,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="57" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2552,25 +2553,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="60" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="54" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2586,15 +2587,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2609,14 +2610,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2626,6 +2619,14 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="2295"/>
+    <workbookView xWindow="5190" yWindow="3450" windowWidth="15210" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H4"/>
+  <oleSize ref="A7:I28"/>
 </workbook>
 </file>
 
@@ -767,6 +767,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,54 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,7 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2108,20 +2108,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2139,10 +2139,10 @@
       <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2154,55 +2154,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2220,25 +2220,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="51" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="34" t="s">
@@ -2254,15 +2254,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2276,21 +2276,21 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="54" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2306,13 +2306,13 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2345,19 +2345,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2367,6 +2354,19 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,8 +2382,8 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2422,20 +2422,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2456,10 +2456,10 @@
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2487,55 +2487,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2553,25 +2553,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="51" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2587,15 +2587,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2610,6 +2610,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2619,14 +2627,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3450" windowWidth="15210" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="5190" yWindow="4035" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:I28"/>
+  <oleSize ref="C1:I19"/>
 </workbook>
 </file>
 
@@ -339,10 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hotelSearch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ShoppingCartAddAction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>ShoppingCartAddLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>searchHotel</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -767,6 +767,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -787,63 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2108,20 +2108,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="58"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2139,10 +2139,10 @@
       <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2154,55 +2154,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2220,26 +2220,26 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>48</v>
+      <c r="G8" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>25</v>
@@ -2254,15 +2254,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2276,21 +2276,21 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2306,13 +2306,13 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2345,6 +2345,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2354,19 +2367,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,7 +2382,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2422,20 +2422,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="58"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2456,10 +2456,10 @@
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2487,55 +2487,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2553,25 +2553,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="60" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="E8" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="54" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2587,15 +2587,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2610,14 +2610,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2627,6 +2619,14 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/800系_ユースケース構成.xlsx
+++ b/doc/unfinished/800系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4035" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11355" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ホテル検索" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:I19"/>
+  <oleSize ref="A1:F19"/>
 </workbook>
 </file>
 
@@ -767,6 +767,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,54 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,7 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
@@ -2108,20 +2108,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2139,10 +2139,10 @@
       <c r="F3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2154,55 +2154,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2220,25 +2220,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="51" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="34" t="s">
@@ -2254,15 +2254,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2276,21 +2276,21 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="54" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2306,13 +2306,13 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2345,19 +2345,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2367,6 +2354,19 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,7 +2382,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2422,20 +2422,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2456,10 +2456,10 @@
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2487,55 +2487,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2553,25 +2553,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="51" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2587,15 +2587,15 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2610,6 +2610,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2619,14 +2627,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
